--- a/期末專案/rawdata/銘傳大學.xlsx
+++ b/期末專案/rawdata/銘傳大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(2.00)、英文(1.00)、數甲(1.50)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,21 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +588,21 @@
           <t>國文(1.50)、數B(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +620,21 @@
           <t>國文(2.00)、歷史(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +652,21 @@
           <t>國文(1.00)、歷史(1.50)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +684,21 @@
           <t>國文(1.50)、英文(2.00)、歷史(1.50)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +716,21 @@
           <t>國文(2.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +748,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +780,21 @@
           <t>國文(2.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +812,21 @@
           <t>國文(1.00)、社會(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +844,21 @@
           <t>國文(2.00)、英文(2.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +876,21 @@
           <t>國文(1.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +908,21 @@
           <t>國文(1.00)、社會(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +940,21 @@
           <t>國文(1.25)、英文(1.25)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +972,21 @@
           <t>國文(2.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1004,21 @@
           <t>英文(1.00)、歷史(1.25)、公民(1.50)</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1036,21 @@
           <t>國文(1.00)、歷史(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1068,21 @@
           <t>國文(1.00)、數B(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1100,21 @@
           <t>國文(2.00)、歷史(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1132,26 @@
           <t>國文(1.00)、數B(1.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1169,21 @@
           <t>國文(2.00)、英文(1.75)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1201,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1233,21 @@
           <t>國文(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1265,21 @@
           <t>國文(2.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1297,26 @@
           <t>國文(2.00)、英文(1.00)、數B(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1334,21 @@
           <t>國文(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1366,21 @@
           <t>國文(1.00)、數A(1.00)、數甲(1.00)</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1398,21 @@
           <t>國文(2.00)、數B(1.75)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1430,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1462,21 @@
           <t>國文(1.50)、英文(2.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1494,21 @@
           <t>國文(1.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1526,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1558,31 @@
           <t>國文(1.00)、英文(2.00)、數B(1.00)、社會(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1600,21 @@
           <t>國文(1.50)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1632,21 @@
           <t>國文(2.00)、歷史(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1664,21 @@
           <t>國文(1.00)、英文(1.25)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1696,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1728,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +1760,21 @@
           <t>國文(1.00)、歷史(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +1792,21 @@
           <t>國文(1.00)、數B(1.00)、物理(1.00)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +1824,21 @@
           <t>國文(2.00)、英文(1.75)、歷史(1.75)</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +1856,21 @@
           <t>國文(2.00)、英文(2.00)、數甲(1.75)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +1888,21 @@
           <t>英文(1.75)、數A(1.00)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +1920,21 @@
           <t>國文(1.50)、數B(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +1952,21 @@
           <t>英文(2.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1219,6 +1984,21 @@
           <t>國文(2.00)、歷史(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1236,6 +2016,21 @@
           <t>國文(2.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1253,6 +2048,21 @@
           <t>英文(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1270,6 +2080,21 @@
           <t>國文(1.00)、社會(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1287,6 +2112,21 @@
           <t>國文(1.00)、歷史(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1304,6 +2144,21 @@
           <t>國文(2.00)、社會(1.50)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1321,6 +2176,21 @@
           <t>國文(1.00)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1338,6 +2208,21 @@
           <t>國文(1.00)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1355,6 +2240,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1372,6 +2272,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1389,6 +2304,21 @@
           <t>國文(1.50)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1406,6 +2336,21 @@
           <t>國文(1.50)、英文(2.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1421,6 +2366,21 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>社會(1.00)、歷史(1.00)、公民(1.00)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
